--- a/Known Issues Ex3- _319125134_204666085.xlsx
+++ b/Known Issues Ex3- _319125134_204666085.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liorb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Interests\University\semester_6\cpp_project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="13755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19140"/>
   </bookViews>
   <sheets>
     <sheet name="Known Issues" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Please make sure to set the proper IDs into the filename!</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Better documentation is missing, especially for code with multithreaded logic. Clearer naming for functions</t>
+  </si>
+  <si>
+    <t>Log Invalid moves in algorithm error file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure if this is a requirement, but in error file we can also put invalid moves the algorithm can make like moving into a wall. </t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -877,17 +883,35 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -28666,7 +28690,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
